--- a/Tests Data/ME Solar MESM-50W/Single-diode model/STC/Single-diode emulator - ME Solar MESM-50W (STC).xlsx
+++ b/Tests Data/ME Solar MESM-50W/Single-diode model/STC/Single-diode emulator - ME Solar MESM-50W (STC).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage\Emulator\Tests Data\ME Solar MESM-50W\Single-diode model\STC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage_GeePs\Test Data - new\ME Solar MESM-50W\Single-diode model\STC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664CCCBE-75A2-44D1-8BCC-2E9A18D35181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2177F75-04CA-4C2F-82F0-A3CBD6927615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Error (%)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Vs_test</t>
   </si>
@@ -78,6 +75,15 @@
   </si>
   <si>
     <t>Rend. (%)</t>
+  </si>
+  <si>
+    <t>R Error (%)</t>
+  </si>
+  <si>
+    <t>Vs Error (%)</t>
+  </si>
+  <si>
+    <t>Is Error (%)</t>
   </si>
 </sst>
 </file>
@@ -470,259 +476,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B8D570-ED79-418B-A1D1-0F000D275672}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60</v>
       </c>
       <c r="B2">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>25.8</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>6.95</v>
+        <v>5.24</v>
       </c>
       <c r="E2">
-        <v>2.71</v>
+        <v>2.65</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2" si="0">D2*E2</f>
-        <v>18.834499999999998</v>
+        <f>D2*E2</f>
+        <v>13.885999999999999</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G3" si="1">D2/E2</f>
-        <v>2.5645756457564577</v>
+        <f>D2/E2</f>
+        <v>1.977358490566038</v>
       </c>
       <c r="H2">
-        <v>23.063789</v>
+        <v>22.232299999999999</v>
       </c>
       <c r="I2">
-        <v>9.9834209999999999</v>
+        <v>12.606372</v>
       </c>
       <c r="J2">
-        <v>6.9938549999999999</v>
+        <v>5.3356130000000004</v>
       </c>
       <c r="K2">
-        <v>3.0273690000000002</v>
+        <v>3.0254509999999999</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2" si="2">J2/K2</f>
-        <v>2.3102089636248504</v>
+        <f>J2/K2</f>
+        <v>1.7635760751041747</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2" si="3">(ABS(L2-G2)/G2)*100</f>
-        <v>9.9184706270022396</v>
+        <f>ABS(J2-D2)/D2*100</f>
+        <v>1.8246755725190873</v>
       </c>
       <c r="N2">
-        <f>(F4/C4)*100</f>
-        <v>86.643243243243248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <f>ABS(K2-E2)/E2*100</f>
+        <v>14.167962264150944</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O19" si="0">(ABS(L2-G2)/G2)*100</f>
+        <v>10.811515285762169</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P19" si="1">(F2/C2)*100</f>
+        <v>66.123809523809513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3">
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
       <c r="C3">
         <f>A3*B3</f>
-        <v>35.4</v>
+        <v>39.6</v>
       </c>
       <c r="D3">
-        <v>10.7</v>
+        <v>11.05</v>
       </c>
       <c r="E3">
-        <v>2.78</v>
+        <v>2.91</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F8" si="4">D3*E3</f>
-        <v>29.745999999999995</v>
+        <f>D3*E3</f>
+        <v>32.155500000000004</v>
       </c>
       <c r="G3">
+        <f>D3/E3</f>
+        <v>3.7972508591065295</v>
+      </c>
+      <c r="H3">
+        <v>22.522175000000001</v>
+      </c>
+      <c r="I3">
+        <v>6.0083599999999997</v>
+      </c>
+      <c r="J3">
+        <v>11.316692</v>
+      </c>
+      <c r="K3">
+        <v>3.0190139999999999</v>
+      </c>
+      <c r="L3">
+        <f>J3/K3</f>
+        <v>3.7484728457701753</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M19" si="2">ABS(J3-D3)/D3*100</f>
+        <v>2.4135022624434304</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N19" si="3">ABS(K3-E3)/E3*100</f>
+        <v>3.7461855670102997</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>1.2845612561881521</v>
+      </c>
+      <c r="P3">
         <f t="shared" si="1"/>
-        <v>3.8489208633093526</v>
-      </c>
-      <c r="H3">
-        <v>22.905588000000002</v>
-      </c>
-      <c r="I3">
-        <v>6.3272259999999996</v>
-      </c>
-      <c r="J3">
-        <v>10.947917</v>
-      </c>
-      <c r="K3">
-        <v>3.0241500000000001</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L8" si="5">J3/K3</f>
-        <v>3.6201633516855978</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M8" si="6">(ABS(L3-G3)/G3)*100</f>
-        <v>5.9434194608788626</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N8" si="7">(F3/C3)*100</f>
-        <v>84.028248587570602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>81.200757575757592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60</v>
       </c>
       <c r="B4">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="C4">
-        <f>A4*B4</f>
-        <v>44.4</v>
+        <f t="shared" ref="C4:C16" si="4">A2*B4</f>
+        <v>45.6</v>
       </c>
       <c r="D4">
-        <v>14.04</v>
+        <v>12.82</v>
       </c>
       <c r="E4">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="F4">
+        <f>D4*E4</f>
+        <v>37.690800000000003</v>
+      </c>
+      <c r="G4">
+        <f>D4/E4</f>
+        <v>4.3605442176870746</v>
+      </c>
+      <c r="H4">
+        <v>22.522625000000001</v>
+      </c>
+      <c r="I4">
+        <v>5.1916390000000003</v>
+      </c>
+      <c r="J4">
+        <v>13.071528000000001</v>
+      </c>
+      <c r="K4">
+        <v>3.0130880000000002</v>
+      </c>
+      <c r="L4">
+        <f>J4/K4</f>
+        <v>4.3382496628044054</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1.9619968798751983</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>2.4859863945578322</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.5112791837367191</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>82.655263157894737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0.8</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="4"/>
-        <v>38.4696</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G3:G8" si="8">D4/E4</f>
-        <v>5.1240875912408752</v>
-      </c>
-      <c r="H4">
-        <v>22.933201</v>
-      </c>
-      <c r="I4">
-        <v>4.8180620000000003</v>
-      </c>
-      <c r="J4">
-        <v>14.322507999999999</v>
-      </c>
-      <c r="K4">
-        <v>3.0090319999999999</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="5"/>
-        <v>4.7598390445831082</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="6"/>
-        <v>7.1085542581359089</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="7"/>
-        <v>86.643243243243248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>60</v>
-      </c>
-      <c r="B5">
-        <v>0.84</v>
-      </c>
-      <c r="C5">
-        <f>A5*B5</f>
-        <v>50.4</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>15.72</v>
-      </c>
-      <c r="E5">
-        <v>2.78</v>
+        <v>14.22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.91</v>
       </c>
       <c r="F5">
-        <f t="shared" si="4"/>
-        <v>43.701599999999999</v>
+        <f>D5*E5</f>
+        <v>41.380200000000002</v>
       </c>
       <c r="G5">
-        <f t="shared" si="8"/>
-        <v>5.6546762589928061</v>
+        <f>D5/E5</f>
+        <v>4.8865979381443303</v>
       </c>
       <c r="H5">
-        <v>22.961165999999999</v>
+        <v>22.232430000000001</v>
       </c>
       <c r="I5">
-        <v>4.2676030000000003</v>
+        <v>4.6329209999999996</v>
       </c>
       <c r="J5">
-        <v>15.97874</v>
+        <v>14.413589999999999</v>
       </c>
       <c r="K5">
-        <v>2.9698370000000001</v>
+        <v>3.003587</v>
       </c>
       <c r="L5">
-        <f t="shared" si="5"/>
-        <v>5.3803424228333068</v>
+        <f t="shared" ref="L5:L15" si="5">J5/K5</f>
+        <v>4.7987922440735025</v>
       </c>
       <c r="M5">
-        <f t="shared" si="6"/>
-        <v>4.8514507921336394</v>
+        <f t="shared" si="2"/>
+        <v>1.3613924050632811</v>
       </c>
       <c r="N5">
-        <f t="shared" si="7"/>
-        <v>86.709523809523816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3.2160481099656311</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>1.7968675790865609</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>86.208749999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
@@ -730,396 +777,750 @@
         <v>0.85</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C8" si="9">A6*B6</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="D6">
-        <v>16.75</v>
+        <v>14.88</v>
       </c>
       <c r="E6" s="3">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="F6">
+        <f>D6*E6</f>
+        <v>43.747199999999999</v>
+      </c>
+      <c r="G6">
+        <f>D6/E6</f>
+        <v>5.0612244897959187</v>
+      </c>
+      <c r="H6">
+        <v>22.233393</v>
+      </c>
+      <c r="I6">
+        <v>4.4106209999999999</v>
+      </c>
+      <c r="J6">
+        <v>15.08972</v>
+      </c>
+      <c r="K6">
+        <v>2.9934720000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6" si="6">J6/K6</f>
+        <v>5.0408756119983744</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>1.409408602150531</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>1.8187755102040879</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.40205444035470472</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>85.778823529411767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0.89</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="4"/>
-        <v>44.555</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="8"/>
-        <v>6.2969924812030076</v>
-      </c>
-      <c r="H6">
-        <v>22.959676999999999</v>
-      </c>
-      <c r="I6">
-        <v>3.889386</v>
-      </c>
-      <c r="J6">
-        <v>17.005856999999999</v>
-      </c>
-      <c r="K6">
-        <v>2.8808050000000001</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
-        <v>5.9031614427217391</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>6.2542720140905912</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="7"/>
-        <v>87.362745098039213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>0.86</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="9"/>
-        <v>51.6</v>
+        <v>53.4</v>
       </c>
       <c r="D7">
-        <v>17.59</v>
+        <v>15.6</v>
       </c>
       <c r="E7">
-        <v>2.59</v>
+        <v>2.96</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
-        <v>45.558099999999996</v>
+        <f t="shared" ref="F7" si="7">D7*E7</f>
+        <v>46.176000000000002</v>
       </c>
       <c r="G7">
-        <f t="shared" si="8"/>
-        <v>6.7915057915057915</v>
+        <f t="shared" ref="G7" si="8">D7/E7</f>
+        <v>5.2702702702702702</v>
       </c>
       <c r="H7">
-        <v>22.976776000000001</v>
+        <v>22.233898</v>
       </c>
       <c r="I7">
-        <v>3.5962839999999998</v>
+        <v>4.1848780000000003</v>
       </c>
       <c r="J7">
-        <v>17.847771000000002</v>
+        <v>15.801759000000001</v>
       </c>
       <c r="K7">
-        <v>2.7935020000000002</v>
+        <v>2.9742169999999999</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>6.3890310441875471</v>
+        <v>5.3129139534875902</v>
       </c>
       <c r="M7">
-        <f t="shared" si="6"/>
-        <v>5.9261489229917741</v>
+        <f t="shared" si="2"/>
+        <v>1.2933269230769291</v>
       </c>
       <c r="N7">
-        <f t="shared" si="7"/>
-        <v>88.290891472868211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0.48030405405405147</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.8091365533542777</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>86.471910112359552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="C8">
-        <f t="shared" si="9"/>
-        <v>49.199999999999996</v>
+        <f t="shared" si="4"/>
+        <v>55.2</v>
       </c>
       <c r="D8">
-        <v>18.100000000000001</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="E8">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
-        <v>43.440000000000005</v>
+        <f>D8*E8</f>
+        <v>47.742000000000004</v>
       </c>
       <c r="G8">
-        <f t="shared" si="8"/>
-        <v>7.5416666666666679</v>
+        <f t="shared" ref="G8:G12" si="9">D8/E8</f>
+        <v>5.5993150684931514</v>
       </c>
       <c r="H8">
-        <v>22.976551000000001</v>
+        <v>22.234446999999999</v>
       </c>
       <c r="I8">
-        <v>3.2816679999999998</v>
+        <v>3.957017</v>
       </c>
       <c r="J8">
-        <v>18.351050999999998</v>
+        <v>16.524055000000001</v>
       </c>
       <c r="K8">
-        <v>2.621022</v>
+        <v>2.9407510000000001</v>
       </c>
       <c r="L8">
         <f t="shared" si="5"/>
-        <v>7.0014868246050579</v>
+        <v>5.618991543316656</v>
       </c>
       <c r="M8">
-        <f t="shared" si="6"/>
-        <v>7.1626056405959311</v>
+        <f t="shared" si="2"/>
+        <v>1.0645565749235424</v>
       </c>
       <c r="N8">
-        <f t="shared" si="7"/>
-        <v>88.292682926829286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0.71065068493151329</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.35140860235249699</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>86.489130434782609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9" si="10">A9*B9</f>
-        <v>45</v>
+        <f t="shared" si="4"/>
+        <v>55.800000000000004</v>
       </c>
       <c r="D9">
-        <v>19.07</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="E9">
-        <v>2.0499999999999998</v>
+        <v>2.87</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9" si="11">D9*E9</f>
-        <v>39.093499999999999</v>
+        <f>D9*E9</f>
+        <v>48.302099999999996</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9" si="12">D9/E9</f>
-        <v>9.3024390243902442</v>
+        <f t="shared" ref="G9" si="10">D9/E9</f>
+        <v>5.8641114982578388</v>
       </c>
       <c r="H9">
-        <v>22.984992999999999</v>
+        <v>22.234411000000001</v>
       </c>
       <c r="I9">
-        <v>2.730845</v>
+        <v>3.798619</v>
       </c>
       <c r="J9">
-        <v>19.306018999999999</v>
+        <v>17.004604</v>
       </c>
       <c r="K9">
-        <v>2.2937470000000002</v>
+        <v>2.9051369999999999</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9" si="13">J9/K9</f>
-        <v>8.4168040328772076</v>
+        <f t="shared" ref="L9" si="11">J9/K9</f>
+        <v>5.8532881581832461</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9" si="14">(ABS(L9-G9)/G9)*100</f>
-        <v>9.520460055593734</v>
+        <f t="shared" si="2"/>
+        <v>1.0374569221628178</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9" si="15">(F9/C9)*100</f>
-        <v>86.87444444444445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.2242857142857055</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.18456913852692308</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>86.562903225806437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.66</v>
+        <v>0.94</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C15" si="16">A10*B10</f>
-        <v>39.6</v>
+        <f t="shared" si="4"/>
+        <v>56.4</v>
       </c>
       <c r="D10">
-        <v>19.89</v>
+        <v>17.48</v>
       </c>
       <c r="E10">
-        <v>1.75</v>
+        <v>2.79</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F15" si="17">D10*E10</f>
-        <v>34.807500000000005</v>
+        <f>D10*E10</f>
+        <v>48.769200000000005</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G15" si="18">D10/E10</f>
-        <v>11.365714285714287</v>
+        <f>D10/E10</f>
+        <v>6.2652329749103943</v>
       </c>
       <c r="H10">
-        <v>22.991454999999998</v>
+        <v>22.232758</v>
       </c>
       <c r="I10">
-        <v>2.275814</v>
+        <v>3.5702880000000001</v>
       </c>
       <c r="J10">
-        <v>20.117301999999999</v>
+        <v>17.643136999999999</v>
       </c>
       <c r="K10">
-        <v>1.9913149999999999</v>
+        <v>2.8332549999999999</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L15" si="19">J10/K10</f>
-        <v>10.102521198303632</v>
+        <f t="shared" si="5"/>
+        <v>6.2271616921173703</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M15" si="20">(ABS(L10-G10)/G10)*100</f>
-        <v>11.114066882698062</v>
+        <f t="shared" si="2"/>
+        <v>0.93327803203660742</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N15" si="21">(F10/C10)*100</f>
-        <v>87.89772727272728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.5503584229390617</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.6076594908039884</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>86.470212765957456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60</v>
       </c>
       <c r="B11">
-        <v>0.49</v>
+        <v>0.95</v>
       </c>
       <c r="C11">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>17.89</v>
+      </c>
+      <c r="E11">
+        <v>2.77</v>
+      </c>
+      <c r="F11">
+        <f>D11*E11</f>
+        <v>49.555300000000003</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="9"/>
+        <v>6.4584837545126357</v>
+      </c>
+      <c r="H11">
+        <v>22.234034999999999</v>
+      </c>
+      <c r="I11">
+        <v>3.4134669999999998</v>
+      </c>
+      <c r="J11">
+        <v>18.036154</v>
+      </c>
+      <c r="K11">
+        <v>2.7689900000000001</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>6.513621934351514</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0.81695919508104653</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>3.6462093862814272E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.85373257771768052</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>86.93912280701754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0.92</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>55.2</v>
+      </c>
+      <c r="D12">
+        <v>18.34</v>
+      </c>
+      <c r="E12">
+        <v>2.6</v>
+      </c>
+      <c r="F12">
+        <f>D12*E12</f>
+        <v>47.684000000000005</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="9"/>
+        <v>7.0538461538461537</v>
+      </c>
+      <c r="H12">
+        <v>22.234131000000001</v>
+      </c>
+      <c r="I12">
+        <v>3.2217530000000001</v>
+      </c>
+      <c r="J12">
+        <v>18.466652</v>
+      </c>
+      <c r="K12">
+        <v>2.6758410000000001</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>6.9012516065042728</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0.69057797164667378</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>2.9169615384615399</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>2.1632814781291723</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>86.384057971014499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>0.89</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>53.4</v>
+      </c>
+      <c r="D13">
+        <v>18.87</v>
+      </c>
+      <c r="E13">
+        <v>2.46</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F14" si="12">D13*E13</f>
+        <v>46.420200000000001</v>
+      </c>
+      <c r="G13">
+        <f>D13/E13</f>
+        <v>7.6707317073170733</v>
+      </c>
+      <c r="H13">
+        <v>22.234027999999999</v>
+      </c>
+      <c r="I13">
+        <v>2.954685</v>
+      </c>
+      <c r="J13">
+        <v>18.971692999999998</v>
+      </c>
+      <c r="K13">
+        <v>2.521153</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>7.5250066140373066</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0.53891361950184091</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>2.4858943089430903</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>1.8997547931543508</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>86.929213483146071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.84</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>50.4</v>
+      </c>
+      <c r="D14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="12"/>
+        <v>43.456000000000003</v>
+      </c>
+      <c r="G14">
+        <f>D14/E14</f>
+        <v>8.6607142857142847</v>
+      </c>
+      <c r="H14">
+        <v>22.233418</v>
+      </c>
+      <c r="I14">
+        <v>2.640574</v>
+      </c>
+      <c r="J14">
+        <v>19.479301</v>
+      </c>
+      <c r="K14">
+        <v>2.3134790000000001</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>8.4199169303028025</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0.40876804123711841</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>3.2803124999999933</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>2.780340598565568</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>86.222222222222229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>0.77</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>46.2</v>
+      </c>
+      <c r="D15">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="13">D15*E15</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="G15">
+        <f>D15/E15</f>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H15">
+        <v>22.234269999999999</v>
+      </c>
+      <c r="I15">
+        <v>2.3238029999999998</v>
+      </c>
+      <c r="J15">
+        <v>19.947374</v>
+      </c>
+      <c r="K15">
+        <v>2.0847899999999999</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>9.5680495397617982</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0.23806030150754454</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>4.239499999999996</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>3.8386980928462426</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>86.147186147186133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>0.62</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D16">
+        <v>20.41</v>
+      </c>
+      <c r="E16">
+        <v>1.53</v>
+      </c>
+      <c r="F16">
+        <f>D16*E16</f>
+        <v>31.2273</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G19" si="14">D16/E16</f>
+        <v>13.339869281045752</v>
+      </c>
+      <c r="H16">
+        <v>22.239457999999999</v>
+      </c>
+      <c r="I16">
+        <v>1.8241270000000001</v>
+      </c>
+      <c r="J16">
+        <v>20.410786000000002</v>
+      </c>
+      <c r="K16">
+        <v>1.6741349999999999</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L19" si="15">J16/K16</f>
+        <v>12.191839965116316</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>3.8510534052009194E-3</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>9.4205882352941117</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>8.6060012414112581</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>83.944354838709671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C19" si="16">A15*B17</f>
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>21.43</v>
+      </c>
+      <c r="E17">
+        <v>0.6</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F19" si="17">D17*E17</f>
+        <v>12.857999999999999</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="14"/>
+        <v>35.716666666666669</v>
+      </c>
+      <c r="H17">
+        <v>22.253723000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.89309799999999995</v>
+      </c>
+      <c r="J17">
+        <v>21.333824</v>
+      </c>
+      <c r="K17">
+        <v>0.85618099999999997</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="15"/>
+        <v>24.917422834657625</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0.44879141390573879</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>42.696833333333331</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>30.235867005158312</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>71.433333333333323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>0.12</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="16"/>
-        <v>29.4</v>
-      </c>
-      <c r="D11">
-        <v>20.54</v>
-      </c>
-      <c r="E11">
-        <v>1.22</v>
-      </c>
-      <c r="F11">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="D18">
+        <v>22.09</v>
+      </c>
+      <c r="E18">
+        <v>0.05</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="17"/>
-        <v>25.058799999999998</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="18"/>
-        <v>16.83606557377049</v>
-      </c>
-      <c r="H11">
-        <v>23.000026999999999</v>
-      </c>
-      <c r="I11">
-        <v>1.6868320000000001</v>
-      </c>
-      <c r="J11">
-        <v>20.741931999999998</v>
-      </c>
-      <c r="K11">
-        <v>1.5212220000000001</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="19"/>
-        <v>13.635046035358414</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="20"/>
-        <v>19.012871649769881</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="21"/>
-        <v>85.234013605442172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>60</v>
-      </c>
-      <c r="B12">
-        <v>0.35</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>21.1</v>
-      </c>
-      <c r="E12">
-        <v>0.79</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="17"/>
-        <v>16.669</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="18"/>
-        <v>26.708860759493671</v>
-      </c>
-      <c r="H12">
-        <v>23.002243</v>
-      </c>
-      <c r="I12">
-        <v>1.225857</v>
-      </c>
-      <c r="J12">
-        <v>21.237494000000002</v>
-      </c>
-      <c r="K12">
-        <v>1.1318079999999999</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="19"/>
-        <v>18.764219726314007</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="20"/>
-        <v>29.745338465459405</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="21"/>
-        <v>79.376190476190473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>60</v>
-      </c>
-      <c r="B13">
-        <v>0.15</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>21.63</v>
-      </c>
-      <c r="E13">
-        <v>0.16</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="17"/>
-        <v>3.4607999999999999</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="18"/>
-        <v>135.1875</v>
-      </c>
-      <c r="H13">
-        <v>23.006454000000002</v>
-      </c>
-      <c r="I13">
-        <v>0.59164700000000003</v>
-      </c>
-      <c r="J13">
-        <v>21.773887999999999</v>
-      </c>
-      <c r="K13">
-        <v>0.55994900000000003</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="19"/>
-        <v>38.885484213740888</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="20"/>
-        <v>71.235887775318801</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="21"/>
-        <v>38.453333333333333</v>
+        <v>1.1045</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="14"/>
+        <v>441.79999999999995</v>
+      </c>
+      <c r="H18">
+        <v>22.262160999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.32815</v>
+      </c>
+      <c r="J18">
+        <v>21.935129</v>
+      </c>
+      <c r="K18">
+        <v>0.32333000000000001</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="15"/>
+        <v>67.841304549531444</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>0.70109099139882292</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>546.66</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>84.644340301147253</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>15.34027777777778</v>
       </c>
     </row>
   </sheetData>
